--- a/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -468,97 +468,345 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>264</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45474</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B46" t="n">
         <v>84</v>
       </c>
     </row>
@@ -573,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,49 +843,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>96</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -837,7 +838,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -983,6 +984,789 @@
       </c>
       <c r="B19" t="n">
         <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-18.62187837640266</v>
+      </c>
+      <c r="D2" t="n">
+        <v>196.5644599439464</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-34.12679005131184</v>
+      </c>
+      <c r="D3" t="n">
+        <v>180.9425529133858</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-29.76540232417062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.5121220695041</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-24.00312915421683</v>
+      </c>
+      <c r="D5" t="n">
+        <v>187.0677939250865</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-19.56845206717437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>179.063100897504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-32.42223164027428</v>
+      </c>
+      <c r="D7" t="n">
+        <v>183.2511884178383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-19.33798097176469</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.6059107861934</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-30.36355785060247</v>
+      </c>
+      <c r="D9" t="n">
+        <v>183.6923569671785</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-24.98408688480644</v>
+      </c>
+      <c r="D10" t="n">
+        <v>184.4696133209812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-27.29602755694077</v>
+      </c>
+      <c r="D11" t="n">
+        <v>185.5549128873014</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-22.1746084461758</v>
+      </c>
+      <c r="D12" t="n">
+        <v>184.3401072374897</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-22.32216395182304</v>
+      </c>
+      <c r="D13" t="n">
+        <v>185.5844744313587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-33.99051878961365</v>
+      </c>
+      <c r="D14" t="n">
+        <v>177.8241419333916</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-31.54683764198366</v>
+      </c>
+      <c r="D15" t="n">
+        <v>182.6734343942362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>73</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-25.93219471092218</v>
+      </c>
+      <c r="D16" t="n">
+        <v>188.1865933165461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>72</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-39.20148656902175</v>
+      </c>
+      <c r="D17" t="n">
+        <v>176.0498318339527</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>72</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-32.13563150508036</v>
+      </c>
+      <c r="D18" t="n">
+        <v>176.4403421473006</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-42.42424426449844</v>
+      </c>
+      <c r="D19" t="n">
+        <v>179.9778386974562</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-39.29975688572635</v>
+      </c>
+      <c r="D20" t="n">
+        <v>166.9896313819132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>70</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-39.78734326564108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>172.8226928544079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>70</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-29.57810152351693</v>
+      </c>
+      <c r="D22" t="n">
+        <v>179.7516859755603</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>70</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-37.69918256931583</v>
+      </c>
+      <c r="D23" t="n">
+        <v>172.3442933118599</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>69</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-42.96160629006438</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.2639623929389</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>68</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-41.63566339850984</v>
+      </c>
+      <c r="D25" t="n">
+        <v>171.6314236777754</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-42.68392482843421</v>
+      </c>
+      <c r="D26" t="n">
+        <v>167.3701082471693</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-37.12989353516458</v>
+      </c>
+      <c r="D27" t="n">
+        <v>172.2488268890319</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>66</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-35.57932172169648</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165.4864553720944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>65</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-45.84511269411114</v>
+      </c>
+      <c r="D29" t="n">
+        <v>173.7017668804176</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-29.59696024943504</v>
+      </c>
+      <c r="D30" t="n">
+        <v>172.2974189787947</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-43.02420221508138</v>
+      </c>
+      <c r="D31" t="n">
+        <v>172.7279944943043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-37.04293484879292</v>
+      </c>
+      <c r="D32" t="n">
+        <v>170.0404039900576</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>61</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-48.47637019210856</v>
+      </c>
+      <c r="D33" t="n">
+        <v>167.1096178904</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>61</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-39.91842613917206</v>
+      </c>
+      <c r="D34" t="n">
+        <v>173.6461875211845</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-45.7428509699856</v>
+      </c>
+      <c r="D35" t="n">
+        <v>161.0869186329613</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-42.97372814815434</v>
+      </c>
+      <c r="D36" t="n">
+        <v>157.8348165390764</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-35.63759316067625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>164.592878315948</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-50.2647864041629</v>
+      </c>
+      <c r="D38" t="n">
+        <v>160.5687775395335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>58</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-47.78975293049954</v>
+      </c>
+      <c r="D39" t="n">
+        <v>153.4732617433035</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>57</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-50.5249826538404</v>
+      </c>
+      <c r="D40" t="n">
+        <v>160.1912176024158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>57</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-53.78664832412122</v>
+      </c>
+      <c r="D41" t="n">
+        <v>162.5204640927272</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-44.88581174658804</v>
+      </c>
+      <c r="D42" t="n">
+        <v>166.426564653765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-49.1105391392249</v>
+      </c>
+      <c r="D43" t="n">
+        <v>166.6389314169654</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>52</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-46.18985611558607</v>
+      </c>
+      <c r="D44" t="n">
+        <v>151.5683435380245</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>51</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-48.35836201927181</v>
+      </c>
+      <c r="D45" t="n">
+        <v>166.0010462658734</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>51</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-50.21571650658974</v>
+      </c>
+      <c r="D46" t="n">
+        <v>162.5676331066485</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-55.82099687332357</v>
+      </c>
+      <c r="D47" t="n">
+        <v>156.0334522430584</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>50</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-54.29284138511739</v>
+      </c>
+      <c r="D48" t="n">
+        <v>142.7582328903843</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>50</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-59.29412143449603</v>
+      </c>
+      <c r="D49" t="n">
+        <v>155.6282524809494</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-54.31206353422103</v>
+      </c>
+      <c r="D50" t="n">
+        <v>151.224314059557</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-55.17058507405499</v>
+      </c>
+      <c r="D51" t="n">
+        <v>155.5898480649929</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>49</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-58.04210274109944</v>
+      </c>
+      <c r="D52" t="n">
+        <v>154.8481127215407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-55.9710627768272</v>
+      </c>
+      <c r="D53" t="n">
+        <v>160.8703633354881</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>48</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-62.38169756459065</v>
+      </c>
+      <c r="D54" t="n">
+        <v>150.3669864752525</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTLF2X5_po_data.xlsx
@@ -997,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,16 +1016,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1034,12 +1024,6 @@
       <c r="B2" t="n">
         <v>82</v>
       </c>
-      <c r="C2" t="n">
-        <v>-18.62187837640266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>196.5644599439464</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1048,12 +1032,6 @@
       <c r="B3" t="n">
         <v>81</v>
       </c>
-      <c r="C3" t="n">
-        <v>-34.12679005131184</v>
-      </c>
-      <c r="D3" t="n">
-        <v>180.9425529133858</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1062,12 +1040,6 @@
       <c r="B4" t="n">
         <v>81</v>
       </c>
-      <c r="C4" t="n">
-        <v>-29.76540232417062</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.5121220695041</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1076,12 +1048,6 @@
       <c r="B5" t="n">
         <v>80</v>
       </c>
-      <c r="C5" t="n">
-        <v>-24.00312915421683</v>
-      </c>
-      <c r="D5" t="n">
-        <v>187.0677939250865</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1090,12 +1056,6 @@
       <c r="B6" t="n">
         <v>80</v>
       </c>
-      <c r="C6" t="n">
-        <v>-19.56845206717437</v>
-      </c>
-      <c r="D6" t="n">
-        <v>179.063100897504</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1104,12 +1064,6 @@
       <c r="B7" t="n">
         <v>79</v>
       </c>
-      <c r="C7" t="n">
-        <v>-32.42223164027428</v>
-      </c>
-      <c r="D7" t="n">
-        <v>183.2511884178383</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1118,12 +1072,6 @@
       <c r="B8" t="n">
         <v>79</v>
       </c>
-      <c r="C8" t="n">
-        <v>-19.33798097176469</v>
-      </c>
-      <c r="D8" t="n">
-        <v>187.6059107861934</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1132,12 +1080,6 @@
       <c r="B9" t="n">
         <v>79</v>
       </c>
-      <c r="C9" t="n">
-        <v>-30.36355785060247</v>
-      </c>
-      <c r="D9" t="n">
-        <v>183.6923569671785</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1146,12 +1088,6 @@
       <c r="B10" t="n">
         <v>78</v>
       </c>
-      <c r="C10" t="n">
-        <v>-24.98408688480644</v>
-      </c>
-      <c r="D10" t="n">
-        <v>184.4696133209812</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1160,12 +1096,6 @@
       <c r="B11" t="n">
         <v>78</v>
       </c>
-      <c r="C11" t="n">
-        <v>-27.29602755694077</v>
-      </c>
-      <c r="D11" t="n">
-        <v>185.5549128873014</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1174,12 +1104,6 @@
       <c r="B12" t="n">
         <v>77</v>
       </c>
-      <c r="C12" t="n">
-        <v>-22.1746084461758</v>
-      </c>
-      <c r="D12" t="n">
-        <v>184.3401072374897</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1188,12 +1112,6 @@
       <c r="B13" t="n">
         <v>77</v>
       </c>
-      <c r="C13" t="n">
-        <v>-22.32216395182304</v>
-      </c>
-      <c r="D13" t="n">
-        <v>185.5844744313587</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1202,12 +1120,6 @@
       <c r="B14" t="n">
         <v>74</v>
       </c>
-      <c r="C14" t="n">
-        <v>-33.99051878961365</v>
-      </c>
-      <c r="D14" t="n">
-        <v>177.8241419333916</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1216,12 +1128,6 @@
       <c r="B15" t="n">
         <v>73</v>
       </c>
-      <c r="C15" t="n">
-        <v>-31.54683764198366</v>
-      </c>
-      <c r="D15" t="n">
-        <v>182.6734343942362</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1230,12 +1136,6 @@
       <c r="B16" t="n">
         <v>73</v>
       </c>
-      <c r="C16" t="n">
-        <v>-25.93219471092218</v>
-      </c>
-      <c r="D16" t="n">
-        <v>188.1865933165461</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1244,12 +1144,6 @@
       <c r="B17" t="n">
         <v>72</v>
       </c>
-      <c r="C17" t="n">
-        <v>-39.20148656902175</v>
-      </c>
-      <c r="D17" t="n">
-        <v>176.0498318339527</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1258,12 +1152,6 @@
       <c r="B18" t="n">
         <v>72</v>
       </c>
-      <c r="C18" t="n">
-        <v>-32.13563150508036</v>
-      </c>
-      <c r="D18" t="n">
-        <v>176.4403421473006</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1272,12 +1160,6 @@
       <c r="B19" t="n">
         <v>71</v>
       </c>
-      <c r="C19" t="n">
-        <v>-42.42424426449844</v>
-      </c>
-      <c r="D19" t="n">
-        <v>179.9778386974562</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1286,12 +1168,6 @@
       <c r="B20" t="n">
         <v>71</v>
       </c>
-      <c r="C20" t="n">
-        <v>-39.29975688572635</v>
-      </c>
-      <c r="D20" t="n">
-        <v>166.9896313819132</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1300,12 +1176,6 @@
       <c r="B21" t="n">
         <v>70</v>
       </c>
-      <c r="C21" t="n">
-        <v>-39.78734326564108</v>
-      </c>
-      <c r="D21" t="n">
-        <v>172.8226928544079</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1314,12 +1184,6 @@
       <c r="B22" t="n">
         <v>70</v>
       </c>
-      <c r="C22" t="n">
-        <v>-29.57810152351693</v>
-      </c>
-      <c r="D22" t="n">
-        <v>179.7516859755603</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1328,12 +1192,6 @@
       <c r="B23" t="n">
         <v>70</v>
       </c>
-      <c r="C23" t="n">
-        <v>-37.69918256931583</v>
-      </c>
-      <c r="D23" t="n">
-        <v>172.3442933118599</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1342,12 +1200,6 @@
       <c r="B24" t="n">
         <v>69</v>
       </c>
-      <c r="C24" t="n">
-        <v>-42.96160629006438</v>
-      </c>
-      <c r="D24" t="n">
-        <v>176.2639623929389</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1356,12 +1208,6 @@
       <c r="B25" t="n">
         <v>68</v>
       </c>
-      <c r="C25" t="n">
-        <v>-41.63566339850984</v>
-      </c>
-      <c r="D25" t="n">
-        <v>171.6314236777754</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1370,12 +1216,6 @@
       <c r="B26" t="n">
         <v>67</v>
       </c>
-      <c r="C26" t="n">
-        <v>-42.68392482843421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>167.3701082471693</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1384,12 +1224,6 @@
       <c r="B27" t="n">
         <v>66</v>
       </c>
-      <c r="C27" t="n">
-        <v>-37.12989353516458</v>
-      </c>
-      <c r="D27" t="n">
-        <v>172.2488268890319</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1398,12 +1232,6 @@
       <c r="B28" t="n">
         <v>66</v>
       </c>
-      <c r="C28" t="n">
-        <v>-35.57932172169648</v>
-      </c>
-      <c r="D28" t="n">
-        <v>165.4864553720944</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1412,12 +1240,6 @@
       <c r="B29" t="n">
         <v>65</v>
       </c>
-      <c r="C29" t="n">
-        <v>-45.84511269411114</v>
-      </c>
-      <c r="D29" t="n">
-        <v>173.7017668804176</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1426,12 +1248,6 @@
       <c r="B30" t="n">
         <v>64</v>
       </c>
-      <c r="C30" t="n">
-        <v>-29.59696024943504</v>
-      </c>
-      <c r="D30" t="n">
-        <v>172.2974189787947</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1440,12 +1256,6 @@
       <c r="B31" t="n">
         <v>64</v>
       </c>
-      <c r="C31" t="n">
-        <v>-43.02420221508138</v>
-      </c>
-      <c r="D31" t="n">
-        <v>172.7279944943043</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1454,12 +1264,6 @@
       <c r="B32" t="n">
         <v>63</v>
       </c>
-      <c r="C32" t="n">
-        <v>-37.04293484879292</v>
-      </c>
-      <c r="D32" t="n">
-        <v>170.0404039900576</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1468,12 +1272,6 @@
       <c r="B33" t="n">
         <v>61</v>
       </c>
-      <c r="C33" t="n">
-        <v>-48.47637019210856</v>
-      </c>
-      <c r="D33" t="n">
-        <v>167.1096178904</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1482,12 +1280,6 @@
       <c r="B34" t="n">
         <v>61</v>
       </c>
-      <c r="C34" t="n">
-        <v>-39.91842613917206</v>
-      </c>
-      <c r="D34" t="n">
-        <v>173.6461875211845</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1496,12 +1288,6 @@
       <c r="B35" t="n">
         <v>61</v>
       </c>
-      <c r="C35" t="n">
-        <v>-45.7428509699856</v>
-      </c>
-      <c r="D35" t="n">
-        <v>161.0869186329613</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1510,12 +1296,6 @@
       <c r="B36" t="n">
         <v>60</v>
       </c>
-      <c r="C36" t="n">
-        <v>-42.97372814815434</v>
-      </c>
-      <c r="D36" t="n">
-        <v>157.8348165390764</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1524,12 +1304,6 @@
       <c r="B37" t="n">
         <v>60</v>
       </c>
-      <c r="C37" t="n">
-        <v>-35.63759316067625</v>
-      </c>
-      <c r="D37" t="n">
-        <v>164.592878315948</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1538,12 +1312,6 @@
       <c r="B38" t="n">
         <v>59</v>
       </c>
-      <c r="C38" t="n">
-        <v>-50.2647864041629</v>
-      </c>
-      <c r="D38" t="n">
-        <v>160.5687775395335</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1552,12 +1320,6 @@
       <c r="B39" t="n">
         <v>58</v>
       </c>
-      <c r="C39" t="n">
-        <v>-47.78975293049954</v>
-      </c>
-      <c r="D39" t="n">
-        <v>153.4732617433035</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1566,12 +1328,6 @@
       <c r="B40" t="n">
         <v>57</v>
       </c>
-      <c r="C40" t="n">
-        <v>-50.5249826538404</v>
-      </c>
-      <c r="D40" t="n">
-        <v>160.1912176024158</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1580,12 +1336,6 @@
       <c r="B41" t="n">
         <v>57</v>
       </c>
-      <c r="C41" t="n">
-        <v>-53.78664832412122</v>
-      </c>
-      <c r="D41" t="n">
-        <v>162.5204640927272</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1594,12 +1344,6 @@
       <c r="B42" t="n">
         <v>56</v>
       </c>
-      <c r="C42" t="n">
-        <v>-44.88581174658804</v>
-      </c>
-      <c r="D42" t="n">
-        <v>166.426564653765</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1608,12 +1352,6 @@
       <c r="B43" t="n">
         <v>56</v>
       </c>
-      <c r="C43" t="n">
-        <v>-49.1105391392249</v>
-      </c>
-      <c r="D43" t="n">
-        <v>166.6389314169654</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1622,12 +1360,6 @@
       <c r="B44" t="n">
         <v>52</v>
       </c>
-      <c r="C44" t="n">
-        <v>-46.18985611558607</v>
-      </c>
-      <c r="D44" t="n">
-        <v>151.5683435380245</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1636,12 +1368,6 @@
       <c r="B45" t="n">
         <v>51</v>
       </c>
-      <c r="C45" t="n">
-        <v>-48.35836201927181</v>
-      </c>
-      <c r="D45" t="n">
-        <v>166.0010462658734</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1650,12 +1376,6 @@
       <c r="B46" t="n">
         <v>51</v>
       </c>
-      <c r="C46" t="n">
-        <v>-50.21571650658974</v>
-      </c>
-      <c r="D46" t="n">
-        <v>162.5676331066485</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1664,12 +1384,6 @@
       <c r="B47" t="n">
         <v>51</v>
       </c>
-      <c r="C47" t="n">
-        <v>-55.82099687332357</v>
-      </c>
-      <c r="D47" t="n">
-        <v>156.0334522430584</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1678,12 +1392,6 @@
       <c r="B48" t="n">
         <v>50</v>
       </c>
-      <c r="C48" t="n">
-        <v>-54.29284138511739</v>
-      </c>
-      <c r="D48" t="n">
-        <v>142.7582328903843</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1692,12 +1400,6 @@
       <c r="B49" t="n">
         <v>50</v>
       </c>
-      <c r="C49" t="n">
-        <v>-59.29412143449603</v>
-      </c>
-      <c r="D49" t="n">
-        <v>155.6282524809494</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1706,12 +1408,6 @@
       <c r="B50" t="n">
         <v>49</v>
       </c>
-      <c r="C50" t="n">
-        <v>-54.31206353422103</v>
-      </c>
-      <c r="D50" t="n">
-        <v>151.224314059557</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1720,12 +1416,6 @@
       <c r="B51" t="n">
         <v>49</v>
       </c>
-      <c r="C51" t="n">
-        <v>-55.17058507405499</v>
-      </c>
-      <c r="D51" t="n">
-        <v>155.5898480649929</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1734,12 +1424,6 @@
       <c r="B52" t="n">
         <v>49</v>
       </c>
-      <c r="C52" t="n">
-        <v>-58.04210274109944</v>
-      </c>
-      <c r="D52" t="n">
-        <v>154.8481127215407</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1748,12 +1432,6 @@
       <c r="B53" t="n">
         <v>48</v>
       </c>
-      <c r="C53" t="n">
-        <v>-55.9710627768272</v>
-      </c>
-      <c r="D53" t="n">
-        <v>160.8703633354881</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1761,12 +1439,6 @@
       </c>
       <c r="B54" t="n">
         <v>48</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-62.38169756459065</v>
-      </c>
-      <c r="D54" t="n">
-        <v>150.3669864752525</v>
       </c>
     </row>
   </sheetData>
